--- a/biology/Médecine/1713_en_santé_et_médecine/1713_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1713_en_santé_et_médecine/1713_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1713_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1713_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1713 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1713_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1713_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>René-Antoine Ferchault de Réaumur démontre la corrélation existant entre l'action du suc gastrique et sa composition[1].
-Emmanuel Timoni se fait le défenseur de la variolisation en expliquant que les femmes circassiennes la pratiquent pour ne pas être défigurées par la variole[1].
-L'expression anatomie pathologique est créée par Friedrich Hoffmann[1].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>René-Antoine Ferchault de Réaumur démontre la corrélation existant entre l'action du suc gastrique et sa composition.
+Emmanuel Timoni se fait le défenseur de la variolisation en expliquant que les femmes circassiennes la pratiquent pour ne pas être défigurées par la variole.
+L'expression anatomie pathologique est créée par Friedrich Hoffmann.</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1713_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1713_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dominique Anel pratique pour la première fois un cathétérisme d'une fistule lacrymale et décrit l'intervention dans Nouvelle méthode de guérir les fistules lacrymales[2].
-William Cheselden publie The anatomy of the human body qui devient un livre populaire d'anatomie, en partie parce qu'il a été écrit en anglais plutôt qu'en latin[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dominique Anel pratique pour la première fois un cathétérisme d'une fistule lacrymale et décrit l'intervention dans Nouvelle méthode de guérir les fistules lacrymales.
+William Cheselden publie The anatomy of the human body qui devient un livre populaire d'anatomie, en partie parce qu'il a été écrit en anglais plutôt qu'en latin.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1713_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1713_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Non précisé
-Anthony Addington (mort en 1790), médecin anglais qui accorda une attention particulière au traitement de la folie et fut appelé à voir George III lorsqu'il présenta des signes de démence.</t>
+          <t>Non précisé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Anthony Addington (mort en 1790), médecin anglais qui accorda une attention particulière au traitement de la folie et fut appelé à voir George III lorsqu'il présenta des signes de démence.</t>
         </is>
       </c>
     </row>
@@ -587,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1713_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1713_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,6 +627,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
